--- a/plankton.xlsx
+++ b/plankton.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koumineryou/Desktop/labo/R/r4ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F302C-AB3A-D840-8395-7A00B578CD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="12340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="南十字" sheetId="1" r:id="rId1"/>
     <sheet name="北斗" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
   <si>
     <r>
       <t>東海大学海洋学部海洋生物学科　沿岸生態調査実習　</t>
@@ -740,20 +747,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>船名 ： 北斗</t>
-    <rPh sb="0" eb="2">
-      <t>センメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホクト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>＃3697  /</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>St. 4</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -811,89 +804,16 @@
   </si>
   <si>
     <t>1/50</t>
-  </si>
-  <si>
-    <t>鶴見・高野橋</t>
-    <rPh sb="0" eb="2">
-      <t>ツルミ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タカノハシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>鈴木</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>土田</t>
-    <rPh sb="0" eb="2">
-      <t>ツチダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>馬場</t>
-    <rPh sb="0" eb="2">
-      <t>ババ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>今井</t>
-    <rPh sb="0" eb="2">
-      <t>イマイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>田代</t>
-    <rPh sb="0" eb="2">
-      <t>タシロ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>佐藤</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仲宗根</t>
-    <rPh sb="0" eb="3">
-      <t>ナカソネ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>小島</t>
-    <rPh sb="0" eb="2">
-      <t>コジマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>鶴見</t>
-    <rPh sb="0" eb="2">
-      <t>ツルミ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1584,6 +1504,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1600,15 +1529,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1890,19 +1810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1836,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1934,106 +1854,106 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13">
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="50" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="44" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2074,7 +1994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -2115,7 +2035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -2156,7 +2076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +2129,7 @@
         <v>2.0665125</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13">
       <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
@@ -2291,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>37</v>
       </c>
@@ -2308,7 +2228,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -2325,7 +2245,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -2342,7 +2262,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -2383,7 +2303,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2420,7 +2340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2437,7 +2357,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2454,7 +2374,7 @@
       <c r="L20" s="23"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
@@ -2493,7 +2413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
@@ -2510,7 +2430,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2455,7 @@
       </c>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
         <v>47</v>
       </c>
@@ -2552,7 +2472,7 @@
       <c r="L24" s="23"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -2569,7 +2489,7 @@
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>49</v>
       </c>
@@ -2608,7 +2528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
@@ -2649,7 +2569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
@@ -2674,7 +2594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -2703,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
@@ -2722,7 +2642,7 @@
       </c>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
@@ -2747,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
@@ -2764,7 +2684,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13">
       <c r="A33" s="10" t="s">
         <v>56</v>
       </c>
@@ -2781,7 +2701,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13">
       <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
@@ -2837,7 +2757,7 @@
       <c r="L35" s="23"/>
       <c r="M35" s="24"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13">
       <c r="A36" s="10" t="s">
         <v>59</v>
       </c>
@@ -2868,7 +2788,7 @@
       </c>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13">
       <c r="A37" s="10" t="s">
         <v>60</v>
       </c>
@@ -2907,7 +2827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -2924,7 +2844,7 @@
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
@@ -2949,7 +2869,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="24"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
         <v>63</v>
       </c>
@@ -2980,7 +2900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
@@ -2997,7 +2917,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="24"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13">
       <c r="A43" s="11" t="s">
         <v>66</v>
       </c>
@@ -3051,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13">
       <c r="A44" s="11" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +2990,7 @@
       </c>
       <c r="M44" s="35"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3087,7 +3007,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="24"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13">
       <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
@@ -3143,7 +3063,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="24"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13">
       <c r="A48" s="10" t="s">
         <v>65</v>
       </c>
@@ -3176,7 +3096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13">
       <c r="A49" s="36" t="s">
         <v>71</v>
       </c>
@@ -3229,7 +3149,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13">
       <c r="A50" s="40" t="s">
         <v>72</v>
       </c>
@@ -3272,18 +3192,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,150 +3211,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+    <row r="1" spans="1:13">
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.1</v>
-      </c>
+    <row r="2" spans="1:13">
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+    <row r="3" spans="1:13">
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44" t="s">
+      <c r="B5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="44" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -3448,10 +3338,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>26</v>
@@ -3460,22 +3350,22 @@
         <v>20</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -3516,7 +3406,7 @@
         <v>0.64236111111111105</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -3557,60 +3447,60 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="19">
         <f>(0.45/2)^2*3.14*$L$2*B10</f>
-        <v>3.3382125</v>
+        <v>0</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ref="C11:M11" si="0">(0.45/2)^2*3.14*$L$2*C10</f>
-        <v>2.7023625</v>
+        <v>0</v>
       </c>
       <c r="D11" s="20">
         <f>(0.45/2)^2*3.14*$L$2*D10</f>
-        <v>1.4306624999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>0.63585000000000003</v>
+        <v>0</v>
       </c>
       <c r="F11" s="19">
         <f>(0.45/2)^2*3.14*$L$2*F10</f>
-        <v>7.2486899999999999</v>
+        <v>0</v>
       </c>
       <c r="G11" s="20">
         <f>(0.45/2)^2*3.14*$L$2*G10</f>
-        <v>5.5954800000000002</v>
+        <v>0</v>
       </c>
       <c r="H11" s="20">
         <f>(0.45/2)^2*3.14*$L$2*H10</f>
-        <v>4.0058550000000004</v>
+        <v>0</v>
       </c>
       <c r="I11" s="21">
         <f>(0.45/2)^2*3.14*$L$2*I10</f>
-        <v>2.0665125</v>
+        <v>0</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>5.7226499999999998</v>
+        <v>0</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
-        <v>4.6099125000000001</v>
+        <v>0</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" si="0"/>
-        <v>3.3382125</v>
+        <v>0</v>
       </c>
       <c r="M11" s="21">
         <f t="shared" si="0"/>
-        <v>1.5896250000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13">
       <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
@@ -3662,37 +3552,37 @@
         <v>33</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>37</v>
       </c>
@@ -3709,7 +3599,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -3726,7 +3616,7 @@
       <c r="L15" s="23"/>
       <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -3745,7 +3635,7 @@
       <c r="L16" s="23"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
@@ -3787,7 +3677,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -3806,7 +3696,7 @@
       <c r="L18" s="23"/>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3823,7 +3713,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -3840,7 +3730,7 @@
       <c r="L20" s="23"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
@@ -3882,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
@@ -3901,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
@@ -3922,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
         <v>47</v>
       </c>
@@ -3943,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -3962,7 +3852,7 @@
       <c r="L25" s="23"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>49</v>
       </c>
@@ -4004,7 +3894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
@@ -4044,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
@@ -4071,7 +3961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -4102,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
         <v>53</v>
       </c>
@@ -4123,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
@@ -4152,7 +4042,7 @@
       </c>
       <c r="M31" s="24"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4063,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13">
       <c r="A33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4086,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="24"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
@@ -4230,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13">
       <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
@@ -4247,7 +4137,7 @@
       <c r="L35" s="23"/>
       <c r="M35" s="24"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13">
       <c r="A36" s="10" t="s">
         <v>59</v>
       </c>
@@ -4285,7 +4175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13">
       <c r="A37" s="10" t="s">
         <v>60</v>
       </c>
@@ -4327,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -4348,7 +4238,7 @@
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
@@ -4371,7 +4261,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="24"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
         <v>63</v>
       </c>
@@ -4396,7 +4286,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="24"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4305,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="24"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
         <v>65</v>
       </c>
@@ -4446,7 +4336,7 @@
       </c>
       <c r="M42" s="24"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13">
       <c r="A43" s="10" t="s">
         <v>66</v>
       </c>
@@ -4469,7 +4359,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="24"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13">
       <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
@@ -4488,7 +4378,7 @@
       <c r="L44" s="23"/>
       <c r="M44" s="24"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -4505,7 +4395,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="24"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13">
       <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
@@ -4522,7 +4412,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="24"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4429,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="24"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13">
       <c r="A48" s="10" t="s">
         <v>65</v>
       </c>
@@ -4556,7 +4446,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="24"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13">
       <c r="A49" s="36" t="s">
         <v>71</v>
       </c>
@@ -4609,61 +4499,25 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13">
       <c r="A50" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="M50" s="43" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
